--- a/Utility/sample_rag_input_high_quality.xlsx
+++ b/Utility/sample_rag_input_high_quality.xlsx
@@ -478,12 +478,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Based on the documentation, a RAG system consists of three main components: (1) Retrieval - which fetches relevant documents from a knowledge base using semantic search techniques, often leveraging dense embeddings to find semantically similar content, (2) Augmentation - which combines the retrieved context with the user's query to create an enriched prompt for the language model, and (3) Generation - where a large language model generates a response that is grounded in the retrieved information. This architecture ensures responses are factually accurate, traceable to source documents, and significantly reduces hallucinations.</t>
+          <t>The three main components of a RAG system are: (1) Retrieval - fetching relevant documents from a knowledge base using semantic search techniques that leverage dense embeddings to find semantically similar content, (2) Augmentation - combining the retrieved context with the user query to create an enriched prompt for the language model, and (3) Generation - using a language model to produce a response that is grounded in the retrieved information, ensuring factual accuracy and traceability.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A RAG (Retrieval Augmented Generation) system integrates three essential components: (1) Retrieval - this component uses semantic search algorithms to query a knowledge base or vector database and fetch the most relevant documents based on dense embeddings that capture semantic similarity, (2) Augmentation - this component prepares an enriched prompt by combining the user's original query with the retrieved contextual information, ensuring the language model has access to relevant knowledge, and (3) Generation - a large language model synthesizes the information from the augmented prompt to produce a coherent, contextually accurate response that is grounded in the retrieved evidence. This architecture improves factual accuracy and reduces hallucinations by anchoring responses in verified source documents.</t>
+          <t>The three main components of a RAG system are: (1) Retrieval - fetching relevant documents from a knowledge base using semantic search algorithms that leverage dense embeddings to capture semantic similarity, (2) Augmentation - combining retrieved context with the user query to create an enriched prompt that provides relevant knowledge to the language model, and (3) Generation - using a language model to produce a response grounded in the retrieved information, improving factual accuracy and reducing hallucinations.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -510,12 +510,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>According to the American Diabetes Association (ADA) guidelines, metformin is the recommended first-line pharmacological treatment for Type 2 diabetes. This recommendation is made in conjunction with lifestyle modifications, including dietary changes, medical nutrition therapy, and regular physical activity of at least 150 minutes per week. Metformin is preferred because of its proven efficacy in lowering HbA1c levels by 1.0-1.5%, favorable safety profile with long-term safety data, weight-neutral or modest weight loss effects, affordability, and additional cardiovascular benefits demonstrated in multiple clinical studies.</t>
+          <t>According to ADA guidelines, metformin is the recommended first-line pharmacological treatment for Type 2 diabetes, alongside lifestyle modifications including diet and exercise. Metformin is preferred due to its efficacy in lowering HbA1c levels by 1.0-1.5%, favorable safety profile with long-term safety data, low cost with widespread availability, and potential cardiovascular benefits demonstrated in multiple clinical studies.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The American Diabetes Association (ADA) guidelines clearly recommend metformin as the first-line pharmacological treatment for adults with Type 2 diabetes, to be initiated alongside lifestyle modifications including medical nutrition therapy, dietary changes, and physical activity. Metformin is the preferred choice due to several key factors: it effectively lowers HbA1c levels by 1.0-1.5%, has a well-established long-term safety record, is weight-neutral or may promote modest weight loss (unlike some other diabetes medications), is highly cost-effective and affordable for most patients, and has demonstrated cardiovascular benefits in multiple clinical studies. The medication should be started at low doses and titrated gradually to minimize gastrointestinal side effects.</t>
+          <t>According to ADA guidelines, metformin is the recommended first-line pharmacological treatment for Type 2 diabetes, alongside lifestyle modifications including diet and exercise. Metformin is preferred due to its efficacy in reducing HbA1c levels by 1.0-1.5%, favorable safety profile with over 60 years of clinical data, low cost with generic formulations widely available, and potential cardiovascular benefits including reduced risk of myocardial infarction as demonstrated in studies like UKPDS.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The company achieved a revenue growth rate of 23% in Q4 2025, with total revenues increasing from $450 million in Q4 2024 to $553.5 million in Q4 2025. This strong performance was primarily driven by significant expansion in our cloud services division, which grew 45% year-over-year, and the successful acquisition of 47 new enterprise customers with contracts exceeding $1 million annually. Operating margins also improved to 28%, up from 24% in the prior year quarter, demonstrating operational efficiency alongside revenue growth.</t>
+          <t>The company's revenue growth rate in Q4 2025 was 23%, representing an increase from $450 million in Q4 2024 to $553.5 million in Q4 2025. This growth was driven primarily by expansion in the cloud services division, which grew 45% year-over-year, and new enterprise customer acquisitions totaling 47 customers with contracts exceeding $1 million annually.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>In Q4 2025, the company's revenue growth rate was 23%, representing a substantial increase from $450 million in Q4 2024 to $553.5 million in Q4 2025. This robust growth was driven primarily by two key factors: the cloud services division which expanded by 45% year-over-year, contributing significantly to overall revenue, and the successful onboarding of 47 new enterprise customers with annual contract values exceeding $1 million each. Additionally, the company demonstrated strong operational efficiency with operating margins improving to 28%, up from 24% in the prior year quarter, indicating that the revenue growth was accompanied by improved profitability and effective cost management.</t>
+          <t>The company's revenue growth rate in Q4 2025 was 23%, representing an increase from $450 million in Q4 2024 to $553.5 million in Q4 2025. This growth was driven primarily by expansion in the cloud services division, which grew 45% year-over-year and now represents 42% of total revenue, and new enterprise customer acquisitions with 47 new customers having contracts exceeding $1 million annually.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Photosynthesis converts light energy into chemical energy through two interconnected stages. First, in the light-dependent reactions occurring in the thylakoid membranes of chloroplasts, chlorophyll molecules in photosystems II and I absorb light photons, which triggers the photolysis of water molecules (H2O → 2H+ + 1/2O2 + 2e-), releasing oxygen as a byproduct and producing energy-rich molecules ATP through chemiosmosis and NADPH through electron transport chains. Second, in the light-independent reactions (Calvin cycle) taking place in the stroma, these ATP and NADPH molecules are utilized by the enzyme RuBisCO to catalyze the fixation of atmospheric CO2 into organic molecules, which through a series of reduction and regeneration steps produces glucose (C6H12O6), a stable form of chemical energy that plants can store as starch or metabolize for cellular respiration.</t>
+          <t>Photosynthesis converts light energy into chemical energy through two main stages: (1) Light-dependent reactions occur in the thylakoid membranes where chlorophyll absorbs photons, splitting water molecules through photolysis and producing ATP through chemiosmosis and NADPH through electron transport chains. (2) Light-independent reactions (Calvin cycle) occur in the stroma, where ATP and NADPH are used by the enzyme RuBisCO to convert CO2 into glucose through reduction and regeneration steps, a stable chemical energy form that plants can store and use.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Photosynthesis converts light energy into chemical energy through two distinct but interconnected stages within chloroplasts. In the first stage, the light-dependent reactions (also called light reactions) occur in the thylakoid membranes, where chlorophyll and other pigments in photosystems II and I absorb photons of light energy. This energy drives the photolysis of water molecules (H2O → 2H+ + 1/2O2 + 2e-), releasing oxygen as a byproduct, and generates energy-rich molecules: ATP through chemiosmosis via the electron transport chain, and NADPH through reduction reactions. In the second stage, the light-independent reactions (Calvin cycle) occur in the stroma of chloroplasts. Here, the enzyme RuBisCO catalyzes the fixation of atmospheric CO2 into organic molecules, and using the ATP and NADPH produced in the light reactions, the Calvin cycle proceeds through reduction and regeneration steps to ultimately produce glucose (C6H12O6), a stable form of chemical energy that plants can store as starch or metabolize for energy through cellular respiration.</t>
+          <t>Photosynthesis converts light energy into chemical energy through two main stages: (1) Light-dependent reactions occur in the thylakoid membranes where chlorophyll and other pigments absorb photons, splitting water molecules through photolysis and producing ATP through chemiosmosis and NADPH through electron transport. (2) Light-independent reactions (Calvin cycle) occur in the stroma, where ATP and NADPH are used by the enzyme RuBisCO to convert CO2 into glucose through carbon fixation, reduction, and regeneration steps, a stable chemical energy form that plants can store and use.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>REST and GraphQL APIs differ in several key aspects. REST (Representational State Transfer) APIs utilize multiple resource-based endpoints (e.g., /users, /posts) to represent different resources, employing standard HTTP methods like GET for retrieval, POST for creation, PUT/PATCH for updates, and DELETE for removal. However, this architecture can result in over-fetching (receiving more data than needed) or under-fetching (requiring multiple requests to gather all needed data). REST benefits from straightforward HTTP caching mechanisms using headers like ETag and Cache-Control. In contrast, GraphQL APIs expose a single endpoint (typically /graphql) with a powerful, strongly-typed schema definition language that enables clients to request precisely the data they need in a single request, eliminating over-fetching and solving the under-fetching problem. GraphQL provides strong typing through schemas, introspection capabilities for API exploration, and excellent developer tooling. However, GraphQL requires more sophisticated caching strategies (often using Apollo Client or Relay) and has a steeper initial learning curve compared to REST.</t>
+          <t>REST APIs use multiple endpoints for different resources with standard HTTP methods (GET, POST, PUT, DELETE), may lead to over-fetching or under-fetching data, and use HTTP caching naturally with headers like ETag and Cache-Control. GraphQL APIs use a single endpoint with a flexible query language that allows clients to request exactly the data they need in one request, provide strong typing through schemas and introspection capabilities, but require more complex caching strategies using tools like Apollo Client or Relay and have a steeper learning curve.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>REST and GraphQL APIs represent two distinct approaches to API design with several key differences. REST (Representational State Transfer) is an architectural style that uses multiple resource-based endpoints such as /users, /posts, and /comments, where each endpoint supports standard HTTP methods including GET for data retrieval, POST for creating resources, PUT or PATCH for updates, and DELETE for removal. While REST is straightforward and benefits from built-in HTTP caching using standard headers like ETag and Cache-Control, it often results in over-fetching (receiving more data than needed) or under-fetching (requiring multiple sequential requests to gather all necessary data). GraphQL, developed by Facebook, provides a fundamentally different approach with a single endpoint (typically /graphql) and a strongly-typed schema definition language. Clients can use GraphQL's query language to request exactly the fields they need, eliminating over-fetching, and can fetch multiple related resources in a single request, solving the under-fetching problem. GraphQL also provides introspection capabilities for API exploration and excellent developer tooling. However, GraphQL requires more sophisticated caching strategies, often implemented using specialized clients like Apollo Client or Relay, and presents a steeper learning curve compared to REST, especially for developers unfamiliar with the query language and schema design patterns.</t>
+          <t>REST APIs use multiple endpoints for different resources with standard HTTP methods (GET, POST, PUT, DELETE), may lead to over-fetching or under-fetching data, and use HTTP caching naturally through standard headers. GraphQL APIs use a single endpoint with a flexible, strongly-typed query language that allows clients to request exactly the data they need in one request, provide strong typing through schemas with introspection capabilities for API exploration, but require more complex caching strategies often using specialized clients like Apollo Client or Relay and have a steeper learning curve compared to REST.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
